--- a/data.xlsx
+++ b/data.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\Honours\R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0E87BA-A67A-4DEE-8F19-F62A3766717B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F335A297-A6F4-4F3A-90A9-AAC290A6E6BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{EF6BB564-CF19-40F9-8CB4-384459C6BA01}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EF6BB564-CF19-40F9-8CB4-384459C6BA01}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="weather" sheetId="2" r:id="rId2"/>
-    <sheet name="coordinates" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data!$E$1:$E$999</definedName>
@@ -761,9 +760,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:R999"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C179" sqref="C179"/>
+      <selection pane="bottomLeft" activeCell="H192" sqref="H192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -48910,7 +48909,7 @@
   <dimension ref="A1:U61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -52418,18 +52417,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D360E7A1-97F3-414E-813F-E8CED1DAD4D1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>